--- a/TEMPLATE/Param Requirements.xlsx
+++ b/TEMPLATE/Param Requirements.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Coding\Project\reformat_app\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16606ACA-F3D3-40C2-8A5C-33EC041497D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCBE6D9-7442-4111-8AA1-1BE59743351F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Field Name" sheetId="1" r:id="rId1"/>
+    <sheet name="Param Requirements" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Parameter Name</t>
   </si>
@@ -29,6 +30,57 @@
   </si>
   <si>
     <t>Decode value</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>Max Length</t>
+  </si>
+  <si>
+    <t>Field format</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>ApplicationCode</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Unique 3 digit application code Ex: CCP, RMT,RBK etc..</t>
+  </si>
+  <si>
+    <t>AccountOwner</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Unique 6 Digit LAN ID of the account owner</t>
+  </si>
+  <si>
+    <t>AccountName</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Alpha-Numeric</t>
+  </si>
+  <si>
+    <t>Unique Application Account ID / Name used by users to login to the application (case sensitive)</t>
   </si>
 </sst>
 </file>
@@ -51,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -61,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -92,9 +150,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,7 +496,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -462,4 +521,94 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BC9E6-E7EA-43DD-9BA6-559F40143A09}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
+    <col min="5" max="5" width="85.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>